--- a/results/I3_N5_M2_T15_C150_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.3569411644711</v>
+        <v>422.7307425503977</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4270000457763672</v>
+        <v>0.4939999580383301</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.806890826763861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.693089440038631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>680.3300000007986</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.41</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.18397443193426</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.615951731952411</v>
+        <v>5.966239078783583</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.82484646040542</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.350287346831241</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.145609779219562</v>
+        <v>5.145609779219558</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,90 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.8899999999995</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>169.3300000000002</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.8399999999971</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.1899999999972</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>158.5049999999991</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9800000000142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4300000000149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2900000000119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0200000000169</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>191.9750000000149</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>201.8300000000145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>205.2950000000128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>207.3100000000177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000001208</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000001557</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000001215</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000001659</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000001615</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89499999999862</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999745</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999767</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.890000000034</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>169.3300000000547</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.8400000000311</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.1900000000314</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>158.5050000000338</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>191.9750000000549</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>201.8300000000545</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>205.2950000000528</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.3100000000558</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17.89000000003398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33000000005467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1625,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.84000000003107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1636,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.19000000003143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.50500000003376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.97500000005493</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>51.83000000005086</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>55.29500000005282</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>57.31000000005577</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1702,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1914,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1991,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2002,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2013,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2065,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2076,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2087,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2098,78 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
